--- a/实验文档.xlsx
+++ b/实验文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319097EF-2505-4FA4-84BD-070542AE1D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BEDF4A-C016-434A-BE6D-47AE7B0BFD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>0-99</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,10 @@
   </si>
   <si>
     <t>201-207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>211-216</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78CFA9F-73ED-424A-9027-1A5D5AB10FF2}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -542,7 +546,9 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -554,7 +560,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -567,7 +573,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -580,7 +586,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -593,7 +599,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -606,7 +612,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -619,7 +625,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -632,19 +638,6 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实验文档.xlsx
+++ b/实验文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BEDF4A-C016-434A-BE6D-47AE7B0BFD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E72F3DD-0840-4A1C-B7AE-CAB2976779FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>0-99</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,17 +80,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>201-207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>211-216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pin, pbtw=[(0.024, 0.001), (0.022, 0.003), (0.02, 0.005), (0.018, 0.007), (0.016, 0.009), (0.014), (0.011)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220-224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>βZ=[0, 0.4, 0.8, 1.2, 1.6, 2, 2.4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">βZ=[0, </t>
+      <t>βH,βB=[</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="134"/>
       </rPr>
-      <t>0.4, 0.8, 1.2, 1.6, 2, 2.4</t>
+      <t>(2, 1)</t>
     </r>
     <r>
       <rPr>
@@ -98,16 +118,8 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>]</t>
+      <t>, (2.5, 0.5), (1.5, 1.5), (1, 2), (0.5, 2.5)]</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201-207</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>211-216</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,10 +166,10 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,11 +192,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -480,7 +491,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -507,14 +518,14 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="14.7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="14.7" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1"/>
@@ -526,15 +537,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="14.7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -545,12 +556,16 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -561,9 +576,15 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -573,7 +594,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -599,7 +620,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -625,7 +646,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>

--- a/实验文档.xlsx
+++ b/实验文档.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E72F3DD-0840-4A1C-B7AE-CAB2976779FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB97434-38DE-4173-B7E7-33360BDB6057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,12 +491,14 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="8.796875" style="2"/>
+    <col min="2" max="2" width="20.34765625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.5">

--- a/实验文档.xlsx
+++ b/实验文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB97434-38DE-4173-B7E7-33360BDB6057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550532C3-9F8A-4D23-8D80-978E10128B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>0-99</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,12 +122,48 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模型参数测试（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>seed 101-110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +206,20 @@
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,11 +242,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -491,7 +542,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -539,17 +590,16 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
+    <row r="3" spans="1:11" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1"/>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -560,13 +610,13 @@
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -579,13 +629,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -597,9 +647,15 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
